--- a/data/Homologado.xlsx
+++ b/data/Homologado.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\liquidacion_baremos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\liquidacion_baremos v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5906FD6-A20F-41F3-9C1C-4053AC19F6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58814E-E6F2-4789-9B90-770C5381BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="185">
   <si>
     <t>DESC_TIPO_EQUIPO</t>
   </si>
@@ -577,6 +588,9 @@
   </si>
   <si>
     <t>CON-RA-CONECTO-UTP*CAT6**********-*ZTT-O</t>
+  </si>
+  <si>
+    <t>MOD-OT-HGU****-MODEM*HGU*********-ASKE-O</t>
   </si>
 </sst>
 </file>
@@ -648,8 +662,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60E8A9F6-0862-4EE0-B30B-322645742263}" name="Homologado" displayName="Homologado" ref="A1:C150" totalsRowShown="0">
-  <autoFilter ref="A1:C150" xr:uid="{60E8A9F6-0862-4EE0-B30B-322645742263}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60E8A9F6-0862-4EE0-B30B-322645742263}" name="Homologado" displayName="Homologado" ref="A1:C152" totalsRowShown="0">
+  <autoFilter ref="A1:C152" xr:uid="{60E8A9F6-0862-4EE0-B30B-322645742263}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DB5C7112-C53C-456B-A837-BB23E0B2672B}" name="DESC_TIPO_EQUIPO"/>
     <tableColumn id="3" xr3:uid="{5F1F567C-C30F-4095-8F74-42AEB6EB7762}" name="DESCRIPCION"/>
@@ -922,11 +936,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2078,7 +2090,7 @@
         <v>144</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2215,7 +2227,7 @@
         <v>156</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2281,7 +2293,7 @@
         <v>162</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,7 +2359,7 @@
         <v>168</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2535,6 +2547,28 @@
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
